--- a/zalihe.xlsx
+++ b/zalihe.xlsx
@@ -517,7 +517,7 @@
       <selection activeCell="A3288" sqref="A3288"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
     <col width="9.33203125" bestFit="1" customWidth="1" min="3" max="4"/>
     <col width="10.109375" bestFit="1" customWidth="1" min="5" max="5"/>

--- a/zalihe.xlsx
+++ b/zalihe.xlsx
@@ -517,7 +517,7 @@
       <selection activeCell="A3288" sqref="A3288"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
     <col width="9.33203125" bestFit="1" customWidth="1" min="3" max="4"/>
     <col width="10.109375" bestFit="1" customWidth="1" min="5" max="5"/>
